--- a/output/intraday/riepilogo_intraday_2025-10-21.xlsx
+++ b/output/intraday/riepilogo_intraday_2025-10-21.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AR4"/>
+  <dimension ref="A1:AU6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -470,190 +470,205 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Insider Ownership</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Institutional Ownership</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Short Float</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>Open</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Close</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Volume</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>TimeHigh</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>TimeLow</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>OpenPM</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>HighPM</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>LowPM</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ClosePM</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>VolumePM</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>TimePMH</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>High_1m</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>Low_1m</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Volume_1m</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>High_5m</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Low_5m</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Volume_5m</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>High_30m</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Low_30m</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Volume_30m</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>High_60m</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Low_60m</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Volume_60m</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Close_1030</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>High_90m</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Low_90m</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Volume_90m</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Close_1100</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>High_120m</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Low_120m</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Volume_120m</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Close_1200</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>High_240m</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Low_240m</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Volume_240m</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Close_1400</t>
         </is>
@@ -662,433 +677,766 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>GSIT</t>
+          <t>BYND</t>
         </is>
       </c>
       <c r="B2" s="2" t="n">
         <v>45950</v>
       </c>
       <c r="C2" t="n">
-        <v>47.64</v>
+        <v>57.99</v>
       </c>
       <c r="D2" t="n">
-        <v>21690000</v>
+        <v>62900000</v>
       </c>
       <c r="E2" t="n">
-        <v>29090000</v>
+        <v>76600000</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>72.93%</t>
+          <t>44.12%</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>7.5</v>
+        <v>18.05</v>
       </c>
       <c r="H2" t="n">
-        <v>18.15</v>
+        <v>45.72</v>
       </c>
       <c r="I2" t="n">
-        <v>7.34</v>
+        <v>62.94</v>
       </c>
       <c r="J2" t="n">
-        <v>12.98</v>
+        <v>1.02</v>
       </c>
       <c r="K2" t="n">
-        <v>105148449</v>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>2025-10-20 11:48:00</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>2025-10-20 09:38:00</t>
-        </is>
+        <v>1.53</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.47</v>
       </c>
       <c r="N2" t="n">
-        <v>5.08</v>
-      </c>
-      <c r="O2" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="P2" t="n">
-        <v>5.05</v>
+        <v>921806458</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>2025-10-20 13:58:00</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>2025-10-20 09:47:00</t>
+        </is>
       </c>
       <c r="Q2" t="n">
-        <v>7.53</v>
+        <v>1.23</v>
       </c>
       <c r="R2" t="n">
-        <v>4876387</v>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>2025-10-20 09:24:00</t>
-        </is>
+        <v>1.24</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0.86</v>
       </c>
       <c r="T2" t="n">
-        <v>8.25</v>
+        <v>1.02</v>
       </c>
       <c r="U2" t="n">
-        <v>7.49</v>
-      </c>
-      <c r="V2" t="n">
-        <v>636967</v>
+        <v>173860058</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>2025-10-20 08:00:00</t>
+        </is>
       </c>
       <c r="W2" t="n">
-        <v>8.25</v>
+        <v>1.03</v>
       </c>
       <c r="X2" t="n">
-        <v>7.49</v>
+        <v>1</v>
       </c>
       <c r="Y2" t="n">
-        <v>636967</v>
+        <v>11298689</v>
       </c>
       <c r="Z2" t="n">
-        <v>13.43</v>
+        <v>1.03</v>
       </c>
       <c r="AA2" t="n">
-        <v>7.34</v>
+        <v>0.93</v>
       </c>
       <c r="AB2" t="n">
-        <v>16961769</v>
+        <v>33250504</v>
       </c>
       <c r="AC2" t="n">
-        <v>17.49</v>
+        <v>1.03</v>
       </c>
       <c r="AD2" t="n">
-        <v>7.34</v>
+        <v>0.88</v>
       </c>
       <c r="AE2" t="n">
-        <v>27014597</v>
+        <v>121170792</v>
       </c>
       <c r="AF2" t="n">
-        <v>13.75</v>
+        <v>1.03</v>
       </c>
       <c r="AG2" t="n">
-        <v>17.56</v>
+        <v>0.88</v>
       </c>
       <c r="AH2" t="n">
-        <v>7.34</v>
+        <v>178300293</v>
       </c>
       <c r="AI2" t="n">
-        <v>41837374</v>
+        <v>0.96</v>
       </c>
       <c r="AJ2" t="n">
-        <v>14.8</v>
+        <v>1.03</v>
       </c>
       <c r="AK2" t="n">
-        <v>17.56</v>
+        <v>0.88</v>
       </c>
       <c r="AL2" t="n">
-        <v>7.34</v>
+        <v>222343094</v>
       </c>
       <c r="AM2" t="n">
-        <v>51422539</v>
+        <v>0.97</v>
       </c>
       <c r="AN2" t="n">
-        <v>15.84</v>
+        <v>1.15</v>
       </c>
       <c r="AO2" t="n">
-        <v>18.15</v>
+        <v>0.88</v>
       </c>
       <c r="AP2" t="n">
-        <v>7.34</v>
+        <v>304468162</v>
       </c>
       <c r="AQ2" t="n">
-        <v>82715481</v>
+        <v>1.07</v>
       </c>
       <c r="AR2" t="n">
-        <v>12.84</v>
+        <v>1.33</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>514188869</v>
+      </c>
+      <c r="AU2" t="n">
+        <v>1.44</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>RAPT</t>
+          <t>GSIT</t>
         </is>
       </c>
       <c r="B3" s="2" t="n">
         <v>45950</v>
       </c>
       <c r="C3" t="n">
-        <v>43.15</v>
+        <v>47.64</v>
       </c>
       <c r="D3" t="n">
-        <v>7040000</v>
+        <v>21690000</v>
       </c>
       <c r="E3" t="n">
-        <v>16540000</v>
+        <v>29090000</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>-19.83%</t>
+          <t>72.93%</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>42.25</v>
+        <v>25.45</v>
       </c>
       <c r="H3" t="n">
-        <v>42.39</v>
+        <v>14.47</v>
       </c>
       <c r="I3" t="n">
-        <v>25.5</v>
+        <v>1.26</v>
       </c>
       <c r="J3" t="n">
-        <v>33.65</v>
+        <v>7.5</v>
       </c>
       <c r="K3" t="n">
-        <v>2947621</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>2025-10-20 09:30:00</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>2025-10-20 09:48:00</t>
-        </is>
+        <v>18.15</v>
+      </c>
+      <c r="L3" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="M3" t="n">
+        <v>12.98</v>
       </c>
       <c r="N3" t="n">
-        <v>32</v>
-      </c>
-      <c r="O3" t="n">
-        <v>60.18</v>
-      </c>
-      <c r="P3" t="n">
-        <v>28.5</v>
+        <v>105148449</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>2025-10-20 11:48:00</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>2025-10-20 09:38:00</t>
+        </is>
       </c>
       <c r="Q3" t="n">
-        <v>42.4</v>
+        <v>5.08</v>
       </c>
       <c r="R3" t="n">
-        <v>994412</v>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>2025-10-20 08:47:00</t>
-        </is>
+        <v>8.199999999999999</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5.05</v>
       </c>
       <c r="T3" t="n">
-        <v>42.39</v>
+        <v>7.53</v>
       </c>
       <c r="U3" t="n">
-        <v>37.59</v>
-      </c>
-      <c r="V3" t="n">
-        <v>134750</v>
+        <v>4876387</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>2025-10-20 09:24:00</t>
+        </is>
       </c>
       <c r="W3" t="n">
-        <v>42.39</v>
+        <v>8.25</v>
       </c>
       <c r="X3" t="n">
-        <v>37.59</v>
+        <v>7.49</v>
       </c>
       <c r="Y3" t="n">
-        <v>221581</v>
+        <v>636967</v>
       </c>
       <c r="Z3" t="n">
-        <v>42.39</v>
+        <v>8.25</v>
       </c>
       <c r="AA3" t="n">
-        <v>25.5</v>
+        <v>7.49</v>
       </c>
       <c r="AB3" t="n">
-        <v>655750</v>
+        <v>636967</v>
       </c>
       <c r="AC3" t="n">
-        <v>42.39</v>
+        <v>13.43</v>
       </c>
       <c r="AD3" t="n">
-        <v>25.5</v>
+        <v>7.34</v>
       </c>
       <c r="AE3" t="n">
-        <v>1308509</v>
+        <v>16961769</v>
       </c>
       <c r="AF3" t="n">
-        <v>38.4</v>
+        <v>17.49</v>
       </c>
       <c r="AG3" t="n">
-        <v>42.39</v>
+        <v>7.34</v>
       </c>
       <c r="AH3" t="n">
-        <v>25.5</v>
+        <v>27014597</v>
       </c>
       <c r="AI3" t="n">
-        <v>1559120</v>
+        <v>13.75</v>
       </c>
       <c r="AJ3" t="n">
-        <v>38.77</v>
+        <v>17.56</v>
       </c>
       <c r="AK3" t="n">
-        <v>42.39</v>
+        <v>7.34</v>
       </c>
       <c r="AL3" t="n">
-        <v>25.5</v>
+        <v>41837374</v>
       </c>
       <c r="AM3" t="n">
-        <v>1669509</v>
+        <v>14.8</v>
       </c>
       <c r="AN3" t="n">
-        <v>34.51</v>
+        <v>17.56</v>
       </c>
       <c r="AO3" t="n">
-        <v>42.39</v>
+        <v>7.34</v>
       </c>
       <c r="AP3" t="n">
-        <v>25.5</v>
+        <v>51422539</v>
       </c>
       <c r="AQ3" t="n">
-        <v>2352505</v>
+        <v>15.84</v>
       </c>
       <c r="AR3" t="n">
-        <v>33.78</v>
+        <v>18.15</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>7.34</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>82715481</v>
+      </c>
+      <c r="AU3" t="n">
+        <v>12.84</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>RDHL</t>
+          <t>RAPT</t>
         </is>
       </c>
       <c r="B4" s="2" t="n">
         <v>45950</v>
       </c>
       <c r="C4" t="n">
+        <v>44</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7040000</v>
+      </c>
+      <c r="E4" t="n">
+        <v>16540000</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>-20.31%</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
+        <v>57.43</v>
+      </c>
+      <c r="H4" t="n">
+        <v>45.63</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="J4" t="n">
+        <v>42.25</v>
+      </c>
+      <c r="K4" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="L4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33.65</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2947621</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>2025-10-20 09:30:00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>2025-10-20 09:48:00</t>
+        </is>
+      </c>
+      <c r="Q4" t="n">
+        <v>32</v>
+      </c>
+      <c r="R4" t="n">
+        <v>60.18</v>
+      </c>
+      <c r="S4" t="n">
+        <v>28.5</v>
+      </c>
+      <c r="T4" t="n">
+        <v>42.4</v>
+      </c>
+      <c r="U4" t="n">
+        <v>994412</v>
+      </c>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t>2025-10-20 08:47:00</t>
+        </is>
+      </c>
+      <c r="W4" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="X4" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>134750</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>37.59</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>221581</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>655750</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1308509</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>38.4</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>1559120</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>38.77</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1669509</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>34.51</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>42.39</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>25.5</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>2352505</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>33.78</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RDHL</t>
+        </is>
+      </c>
+      <c r="B5" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="C5" t="n">
         <v>34.67</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>3310000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E5" t="n">
         <v>3330000</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>-14.36%</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="G5" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="I5" t="n">
+        <v>21.13</v>
+      </c>
+      <c r="J5" t="n">
         <v>2.02</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K5" t="n">
         <v>2.14</v>
       </c>
-      <c r="I4" t="n">
+      <c r="L5" t="n">
         <v>1.68</v>
       </c>
-      <c r="J4" t="n">
+      <c r="M5" t="n">
         <v>1.74</v>
       </c>
-      <c r="K4" t="n">
+      <c r="N5" t="n">
         <v>8803862</v>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="O5" t="inlineStr">
         <is>
           <t>2025-10-20 09:31:00</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>2025-10-20 12:35:00</t>
         </is>
       </c>
-      <c r="N4" t="n">
+      <c r="Q5" t="n">
         <v>1.61</v>
       </c>
-      <c r="O4" t="n">
+      <c r="R5" t="n">
         <v>3.04</v>
       </c>
-      <c r="P4" t="n">
+      <c r="S5" t="n">
         <v>1.48</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="T5" t="n">
         <v>2.01</v>
       </c>
-      <c r="R4" t="n">
+      <c r="U5" t="n">
         <v>15960593</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>2025-10-20 09:10:00</t>
         </is>
       </c>
-      <c r="T4" t="n">
+      <c r="W5" t="n">
         <v>2.06</v>
       </c>
-      <c r="U4" t="n">
+      <c r="X5" t="n">
         <v>1.97</v>
       </c>
-      <c r="V4" t="n">
+      <c r="Y5" t="n">
         <v>253050</v>
       </c>
-      <c r="W4" t="n">
+      <c r="Z5" t="n">
         <v>2.14</v>
       </c>
-      <c r="X4" t="n">
+      <c r="AA5" t="n">
         <v>1.85</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="AB5" t="n">
         <v>1450943</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AC5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AD5" t="n">
         <v>1.73</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AE5" t="n">
         <v>3922322</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AF5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AG5" t="n">
         <v>1.73</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AH5" t="n">
         <v>4989212</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AI5" t="n">
         <v>1.83</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AJ5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AK5" t="n">
         <v>1.73</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AL5" t="n">
         <v>6334767</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AM5" t="n">
         <v>1.8</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AN5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AO5" t="n">
         <v>1.69</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP5" t="n">
         <v>6980796</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AQ5" t="n">
         <v>1.81</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AR5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AS5" t="n">
         <v>1.68</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AT5" t="n">
         <v>7855830</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AU5" t="n">
         <v>1.74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REPL</t>
+        </is>
+      </c>
+      <c r="B6" s="2" t="n">
+        <v>45950</v>
+      </c>
+      <c r="C6" t="n">
+        <v>104.22</v>
+      </c>
+      <c r="D6" t="n">
+        <v>66340000</v>
+      </c>
+      <c r="E6" t="n">
+        <v>77810000</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>-2.67%</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>15.01</v>
+      </c>
+      <c r="H6" t="n">
+        <v>96.79000000000001</v>
+      </c>
+      <c r="I6" t="n">
+        <v>26.96</v>
+      </c>
+      <c r="J6" t="n">
+        <v>9.19</v>
+      </c>
+      <c r="K6" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="L6" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="M6" t="n">
+        <v>8.94</v>
+      </c>
+      <c r="N6" t="n">
+        <v>56279757</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>2025-10-20 12:08:00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>2025-10-20 10:29:00</t>
+        </is>
+      </c>
+      <c r="Q6" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="R6" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="S6" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="T6" t="n">
+        <v>9.199999999999999</v>
+      </c>
+      <c r="U6" t="n">
+        <v>53255358</v>
+      </c>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t>2025-10-20 08:57:00</t>
+        </is>
+      </c>
+      <c r="W6" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="X6" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>879458</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>9.81</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>9.08</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>4413413</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>14829168</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>20796775</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>8.710000000000001</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>24993429</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>9.91</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>29592122</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>9.93</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>10.29</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>8.609999999999999</v>
+      </c>
+      <c r="AT6" t="n">
+        <v>44394164</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>9.69</v>
       </c>
     </row>
   </sheetData>

--- a/output/intraday/riepilogo_intraday_2025-10-21.xlsx
+++ b/output/intraday/riepilogo_intraday_2025-10-21.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AU6"/>
+  <dimension ref="A1:AV6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,220 +455,225 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Market Cap</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>Shs Float</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Shares Outstanding</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Change from Open</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Insider Ownership</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Institutional Ownership</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Short Float</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Open</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Close</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Volume</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>TimeHigh</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>TimeLow</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>OpenPM</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>HighPM</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>LowPM</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>ClosePM</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>VolumePM</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>TimePMH</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>High_1m</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>Low_1m</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Volume_1m</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>High_5m</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>Low_5m</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Volume_5m</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>High_30m</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>Low_30m</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Volume_30m</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>High_60m</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Low_60m</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Volume_60m</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Close_1030</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>High_90m</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Low_90m</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Volume_90m</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Close_1100</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>High_120m</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>Low_120m</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Volume_120m</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Close_1200</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>High_240m</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>Low_240m</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Volume_240m</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Close_1400</t>
         </is>
@@ -687,143 +692,146 @@
         <v>57.99</v>
       </c>
       <c r="D2" t="n">
+        <v>112830000</v>
+      </c>
+      <c r="E2" t="n">
         <v>62900000</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>76600000</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>44.12%</t>
         </is>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>18.05</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>45.72</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>62.94</v>
       </c>
-      <c r="J2" t="n">
+      <c r="K2" t="n">
         <v>1.02</v>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>1.53</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.88</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>1.47</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>921806458</v>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>2025-10-20 13:58:00</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>2025-10-20 09:47:00</t>
         </is>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>1.23</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.24</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.86</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>1.02</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>173860058</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="W2" t="inlineStr">
         <is>
           <t>2025-10-20 08:00:00</t>
         </is>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>1.03</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>1</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>11298689</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>1.03</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>0.93</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>33250504</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>1.03</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>121170792</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>1.03</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>178300293</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>1.03</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>222343094</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>0.97</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>1.15</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>304468162</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>1.07</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>1.33</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>514188869</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>1.44</v>
       </c>
     </row>
@@ -840,143 +848,146 @@
         <v>47.64</v>
       </c>
       <c r="D3" t="n">
+        <v>377310000</v>
+      </c>
+      <c r="E3" t="n">
         <v>21690000</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>29090000</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>72.93%</t>
         </is>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>25.45</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>14.47</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>1.26</v>
       </c>
-      <c r="J3" t="n">
+      <c r="K3" t="n">
         <v>7.5</v>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>18.15</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>7.34</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>12.98</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>105148449</v>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2025-10-20 11:48:00</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2025-10-20 09:38:00</t>
         </is>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>5.08</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>5.05</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>7.53</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>4876387</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="W3" t="inlineStr">
         <is>
           <t>2025-10-20 09:24:00</t>
         </is>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>8.25</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>7.49</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>636967</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>8.25</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>7.49</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>636967</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>13.43</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>7.34</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>16961769</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>17.49</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>7.34</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>27014597</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>13.75</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>17.56</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>7.34</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>41837374</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>14.8</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>17.56</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>7.34</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>51422539</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>15.84</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>18.15</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>7.34</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>82715481</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>12.84</v>
       </c>
     </row>
@@ -993,143 +1004,146 @@
         <v>44</v>
       </c>
       <c r="D4" t="n">
+        <v>556830000</v>
+      </c>
+      <c r="E4" t="n">
         <v>7040000</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>16540000</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>-20.31%</t>
         </is>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>57.43</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>45.63</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>7.1</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
         <v>42.25</v>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>42.39</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>25.5</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>33.65</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>2947621</v>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>2025-10-20 09:30:00</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>2025-10-20 09:48:00</t>
         </is>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>32</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>60.18</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>28.5</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>42.4</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>994412</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="W4" t="inlineStr">
         <is>
           <t>2025-10-20 08:47:00</t>
         </is>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>42.39</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>37.59</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>134750</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>37.59</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>221581</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>25.5</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>655750</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>25.5</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>1308509</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>38.4</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>25.5</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>1559120</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>38.77</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>25.5</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>1669509</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>34.51</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>25.5</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>2352505</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>33.78</v>
       </c>
     </row>
@@ -1146,143 +1160,146 @@
         <v>34.67</v>
       </c>
       <c r="D5" t="n">
+        <v>5760000</v>
+      </c>
+      <c r="E5" t="n">
         <v>3310000</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>3330000</v>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>-14.36%</t>
         </is>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>0.5</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>2.55</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>21.13</v>
       </c>
-      <c r="J5" t="n">
+      <c r="K5" t="n">
         <v>2.02</v>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>2.14</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>1.68</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1.74</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>8803862</v>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>2025-10-20 09:31:00</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>2025-10-20 12:35:00</t>
         </is>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>1.61</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>3.04</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>1.48</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>2.01</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>15960593</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="W5" t="inlineStr">
         <is>
           <t>2025-10-20 09:10:00</t>
         </is>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>2.06</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>1.97</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>253050</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>1.85</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>1450943</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>1.73</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>3922322</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>1.73</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>4989212</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>1.83</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>1.73</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>6334767</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>1.8</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>1.69</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>6980796</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
         <v>1.81</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AS5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5" t="n">
         <v>1.68</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>7855830</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>1.74</v>
       </c>
     </row>
@@ -1299,143 +1316,146 @@
         <v>104.22</v>
       </c>
       <c r="D6" t="n">
+        <v>698210000</v>
+      </c>
+      <c r="E6" t="n">
         <v>66340000</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>77810000</v>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>-2.67%</t>
         </is>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>15.01</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>96.79000000000001</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>26.96</v>
       </c>
-      <c r="J6" t="n">
+      <c r="K6" t="n">
         <v>9.19</v>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>10.29</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>8.94</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>56279757</v>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>2025-10-20 12:08:00</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>2025-10-20 10:29:00</t>
         </is>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>4.41</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>9.75</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>4.41</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>53255358</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="W6" t="inlineStr">
         <is>
           <t>2025-10-20 08:57:00</t>
         </is>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>9.35</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>9.1</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>879458</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>9.81</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>9.08</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>4413413</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>9.91</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>14829168</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>9.91</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>20796775</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>9.91</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>24993429</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>9.16</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6" t="n">
         <v>9.91</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
         <v>29592122</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
         <v>9.93</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AS6" t="n">
         <v>10.29</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AT6" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>44394164</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>9.69</v>
       </c>
     </row>

--- a/output/intraday/riepilogo_intraday_2025-10-21.xlsx
+++ b/output/intraday/riepilogo_intraday_2025-10-21.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AV6"/>
+  <dimension ref="A1:AW6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,190 +490,195 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
+          <t>VWAP_0930</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
           <t>Open</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>High</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Low</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Close</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Volume</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>TimeHigh</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>TimeLow</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>OpenPM</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>HighPM</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>LowPM</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>ClosePM</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>VolumePM</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>TimePMH</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>High_1m</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>Low_1m</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>Volume_1m</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>High_5m</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>Low_5m</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>Volume_5m</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>High_30m</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>Low_30m</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>Volume_30m</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>High_60m</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>Low_60m</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Volume_60m</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>Close_1030</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>High_90m</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>Low_90m</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Volume_90m</t>
         </is>
       </c>
-      <c r="AN1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
         <is>
           <t>Close_1100</t>
         </is>
       </c>
-      <c r="AO1" s="1" t="inlineStr">
+      <c r="AP1" s="1" t="inlineStr">
         <is>
           <t>High_120m</t>
         </is>
       </c>
-      <c r="AP1" s="1" t="inlineStr">
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Low_120m</t>
         </is>
       </c>
-      <c r="AQ1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
         <is>
           <t>Volume_120m</t>
         </is>
       </c>
-      <c r="AR1" s="1" t="inlineStr">
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Close_1200</t>
         </is>
       </c>
-      <c r="AS1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
         <is>
           <t>High_240m</t>
         </is>
       </c>
-      <c r="AT1" s="1" t="inlineStr">
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Low_240m</t>
         </is>
       </c>
-      <c r="AU1" s="1" t="inlineStr">
+      <c r="AV1" s="1" t="inlineStr">
         <is>
           <t>Volume_240m</t>
         </is>
       </c>
-      <c r="AV1" s="1" t="inlineStr">
+      <c r="AW1" s="1" t="inlineStr">
         <is>
           <t>Close_1400</t>
         </is>
@@ -718,120 +723,123 @@
         <v>1.02</v>
       </c>
       <c r="L2" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="M2" t="n">
         <v>1.53</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>0.88</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>1.47</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>921806458</v>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>2025-10-20 13:58:00</t>
         </is>
       </c>
-      <c r="Q2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>2025-10-20 09:47:00</t>
         </is>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.23</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>1.24</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.86</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>1.02</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>173860058</v>
       </c>
-      <c r="W2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>2025-10-20 08:00:00</t>
         </is>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>1.03</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>1</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>11298689</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>1.03</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>0.93</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>33250504</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>1.03</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>121170792</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>1.03</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>178300293</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>0.96</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>1.03</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>222343094</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AO2" t="n">
         <v>0.97</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AP2" t="n">
         <v>1.15</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AQ2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AR2" t="n">
         <v>304468162</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
         <v>1.07</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AT2" t="n">
         <v>1.33</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AU2" t="n">
         <v>0.88</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AV2" t="n">
         <v>514188869</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AW2" t="n">
         <v>1.44</v>
       </c>
     </row>
@@ -871,123 +879,126 @@
         <v>1.26</v>
       </c>
       <c r="K3" t="n">
+        <v>8</v>
+      </c>
+      <c r="L3" t="n">
         <v>7.5</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>18.15</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>7.34</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>12.98</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>105148449</v>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>2025-10-20 11:48:00</t>
         </is>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>2025-10-20 09:38:00</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>5.08</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>5.05</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>7.53</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>4876387</v>
       </c>
-      <c r="W3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>2025-10-20 09:24:00</t>
         </is>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>8.25</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>7.49</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>636967</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>8.25</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>7.49</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>636967</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>13.43</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>7.34</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>16961769</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>17.49</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>7.34</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>27014597</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>13.75</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>17.56</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>7.34</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>41837374</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AO3" t="n">
         <v>14.8</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AP3" t="n">
         <v>17.56</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AQ3" t="n">
         <v>7.34</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AR3" t="n">
         <v>51422539</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
         <v>15.84</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AT3" t="n">
         <v>18.15</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AU3" t="n">
         <v>7.34</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AV3" t="n">
         <v>82715481</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AW3" t="n">
         <v>12.84</v>
       </c>
     </row>
@@ -1027,123 +1038,126 @@
         <v>7.1</v>
       </c>
       <c r="K4" t="n">
+        <v>39.38</v>
+      </c>
+      <c r="L4" t="n">
         <v>42.25</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>42.39</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>25.5</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>33.65</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>2947621</v>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>2025-10-20 09:30:00</t>
         </is>
       </c>
-      <c r="Q4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>2025-10-20 09:48:00</t>
         </is>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>32</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>60.18</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>28.5</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>42.4</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>994412</v>
       </c>
-      <c r="W4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>2025-10-20 08:47:00</t>
         </is>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>42.39</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>37.59</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>134750</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>37.59</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>221581</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>25.5</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>655750</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>25.5</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>1308509</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>38.4</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>25.5</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>1559120</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AO4" t="n">
         <v>38.77</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AP4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AQ4" t="n">
         <v>25.5</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AR4" t="n">
         <v>1669509</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AS4" t="n">
         <v>34.51</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AT4" t="n">
         <v>42.39</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AU4" t="n">
         <v>25.5</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AV4" t="n">
         <v>2352505</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AW4" t="n">
         <v>33.78</v>
       </c>
     </row>
@@ -1186,120 +1200,123 @@
         <v>2.02</v>
       </c>
       <c r="L5" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="M5" t="n">
         <v>2.14</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>1.68</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>1.74</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>8803862</v>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>2025-10-20 09:31:00</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
+      <c r="R5" t="inlineStr">
         <is>
           <t>2025-10-20 12:35:00</t>
         </is>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>1.61</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>3.04</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>1.48</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>2.01</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>15960593</v>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>2025-10-20 09:10:00</t>
         </is>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>2.06</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>1.97</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>253050</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>1.85</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>1450943</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>1.73</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>3922322</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>1.73</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>4989212</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>1.83</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>1.73</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>6334767</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
         <v>1.8</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>1.69</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
         <v>6980796</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AS5" t="n">
         <v>1.81</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5" t="n">
         <v>2.14</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>1.68</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>7855830</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
         <v>1.74</v>
       </c>
     </row>
@@ -1339,123 +1356,126 @@
         <v>26.96</v>
       </c>
       <c r="K6" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="L6" t="n">
         <v>9.19</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>10.29</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>8.94</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>56279757</v>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>2025-10-20 12:08:00</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>2025-10-20 10:29:00</t>
         </is>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>4.41</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>9.75</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>4.41</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>9.199999999999999</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>53255358</v>
       </c>
-      <c r="W6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>2025-10-20 08:57:00</t>
         </is>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>9.35</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>9.1</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>879458</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>9.81</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>9.08</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>4413413</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>9.91</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>14829168</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>9.91</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>20796775</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>8.710000000000001</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>9.91</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>24993429</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AO6" t="n">
         <v>9.16</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AP6" t="n">
         <v>9.91</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AR6" t="n">
         <v>29592122</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AS6" t="n">
         <v>9.93</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AT6" t="n">
         <v>10.29</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>8.609999999999999</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>44394164</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AW6" t="n">
         <v>9.69</v>
       </c>
     </row>
